--- a/public/application/files/jasper/templates/requisiciones.xlsx
+++ b/public/application/files/jasper/templates/requisiciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="1480" windowWidth="25360" windowHeight="14440" tabRatio="198"/>
+    <workbookView xWindow="-33480" yWindow="660" windowWidth="25360" windowHeight="14440" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,17 +162,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -284,22 +273,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -307,10 +283,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -803,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -816,197 +801,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="29.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="29.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+    <row r="9" spans="1:8" s="1" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1">
-      <c r="A11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+  <mergeCells count="19">
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F8:G8"/>
@@ -1016,6 +974,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
